--- a/data/case1/20/Q_device_13.xlsx
+++ b/data/case1/20/Q_device_13.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.046061214514175441</v>
+        <v>-0.00090836526578420677</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.046102962332243688</v>
+        <v>-0.00090789938524150904</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0042802194340703995</v>
+        <v>-0.026971880409021327</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0042833165429992156</v>
+        <v>-0.026970960483861831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.010158149942745788</v>
+        <v>-0.011986400458099251</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.010022354711439797</v>
+        <v>-0.012111267906715415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.064248781961719806</v>
+        <v>-0.02030932140230958</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.048655025739232839</v>
+        <v>-0.018048881019651273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.031907315998088631</v>
+        <v>-0.030966062255442805</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.061436046820948151</v>
+        <v>-0.030966695997759957</v>
       </c>
     </row>
   </sheetData>
